--- a/Project/HLR_PARABANK.xlsx
+++ b/Project/HLR_PARABANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT SINGH\OneDrive\Desktop\TOPS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9E6850-F373-4A28-BFCF-96861F3C2FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8CBD2D-A4F3-41C8-B7AF-DA4DF25A001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{540C30A9-48F1-477E-A7E1-6C7C6090CA46}"/>
   </bookViews>
@@ -1130,6 +1130,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1139,28 +1151,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1480,7 +1480,7 @@
   <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1535,11 +1535,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="36">
       <c r="A6" s="4">
@@ -1608,11 +1608,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="144">
       <c r="A13" s="4">
@@ -1747,11 +1747,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="36">
       <c r="A26" s="4">
@@ -1936,7 +1936,7 @@
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2139,11 +2139,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="18">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="180">
       <c r="A62" s="4">
@@ -2303,10 +2303,10 @@
       <c r="A76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
       <c r="A77" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2325,10 +2325,10 @@
       <c r="A78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2336,10 +2336,10 @@
       <c r="A79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2347,10 +2347,10 @@
       <c r="A80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2358,10 +2358,10 @@
       <c r="A81" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2369,10 +2369,10 @@
       <c r="A82" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2380,10 +2380,10 @@
       <c r="A83" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2391,10 +2391,10 @@
       <c r="A84" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2402,10 +2402,10 @@
       <c r="A85" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2413,10 +2413,10 @@
       <c r="A86" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2424,10 +2424,10 @@
       <c r="A87" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2435,10 +2435,10 @@
       <c r="A88" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2716,13 +2716,13 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="18">
-      <c r="A114" s="11">
+      <c r="A114" s="6">
         <v>17.2</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="7" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2730,21 +2730,21 @@
       <c r="A115" s="4">
         <v>17.3</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18">
-      <c r="A116" s="11">
+      <c r="A116" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="7" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2752,21 +2752,21 @@
       <c r="A117" s="4">
         <v>17.5</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18">
-      <c r="A118" s="11">
+      <c r="A118" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="7" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2774,21 +2774,21 @@
       <c r="A119" s="4">
         <v>17.7</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18">
-      <c r="A120" s="11">
+      <c r="A120" s="6">
         <v>17.8</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="7" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2796,52 +2796,52 @@
       <c r="A121" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18">
-      <c r="A123" s="11">
+      <c r="A123" s="6">
         <v>18</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18">
-      <c r="A124" s="11">
+      <c r="A124" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
     </row>
     <row r="126" spans="1:3" ht="36">
       <c r="A126" s="4">
